--- a/product_image/product_image/12번 카테고리 데이터.xlsx
+++ b/product_image/product_image/12번 카테고리 데이터.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Workspace\Kmarket\product_image\product_image\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\java2\Desktop\Workspace\Kmarket\product_image\product_image\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F96441F-F8CC-4B8A-8505-59C71B668B12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30060" yWindow="0" windowWidth="18660" windowHeight="15600" tabRatio="640" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30060" yWindow="0" windowWidth="18660" windowHeight="15600" tabRatio="640" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="12&gt;10" sheetId="1" r:id="rId1"/>
@@ -727,8 +726,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -752,25 +751,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="맑은 고딕"/>
-      <family val="2"/>
-      <charset val="129"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="20"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0231A6"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -790,13 +774,6 @@
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0231A6"/>
-      <name val="돋움"/>
-      <family val="3"/>
-      <charset val="129"/>
     </font>
     <font>
       <sz val="20"/>
@@ -898,23 +875,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -922,52 +893,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
-    <cellStyle name="하이퍼링크" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1244,14 +1208,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N132"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="15.125" customWidth="1"/>
     <col min="2" max="2" width="72.25" customWidth="1"/>
@@ -1261,740 +1225,622 @@
     <col min="6" max="6" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C1" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-    </row>
-    <row r="2" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+    </row>
+    <row r="2" spans="1:14" ht="52.5">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>118900</v>
       </c>
-      <c r="D2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-    </row>
-    <row r="3" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="D2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+    </row>
+    <row r="3" spans="1:14" ht="52.5">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>94600</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:14" ht="52.5">
+      <c r="A4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>31900</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:14" ht="76.5" customHeight="1">
+      <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>17900</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:14" ht="52.5">
+      <c r="A6" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>28800</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:14" ht="78.75" customHeight="1">
+      <c r="A7" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>59900</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:14" ht="78.75" customHeight="1">
+      <c r="A8" t="s">
         <v>15</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>2900</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:14" ht="52.5">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>44900</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:14" ht="52.5">
+      <c r="A10" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>17900</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A11" s="6" t="s">
+    <row r="11" spans="1:14" ht="52.5">
+      <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="16" t="s">
+      <c r="B11" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>32900</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="80.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-    </row>
-    <row r="13" spans="1:14" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-    </row>
-    <row r="14" spans="1:14" ht="52.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-    </row>
-    <row r="15" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-    </row>
-    <row r="16" spans="1:14" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="7"/>
-    </row>
-    <row r="17" spans="1:3" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="7"/>
-    </row>
-    <row r="18" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="7"/>
-    </row>
-    <row r="19" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="7"/>
-    </row>
-    <row r="20" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A20" s="2"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7"/>
-    </row>
-    <row r="21" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A21" s="6"/>
-      <c r="B21" s="10"/>
-      <c r="C21" s="7"/>
-    </row>
-    <row r="22" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A22" s="11"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="7"/>
-    </row>
-    <row r="23" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="2"/>
-      <c r="B23" s="10"/>
-      <c r="C23" s="7"/>
-    </row>
-    <row r="24" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A24" s="6"/>
-      <c r="B24" s="10"/>
-      <c r="C24" s="7"/>
-    </row>
-    <row r="25" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A25" s="6"/>
-      <c r="B25" s="10"/>
-      <c r="C25" s="7"/>
-    </row>
-    <row r="26" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A26" s="11"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="7"/>
-    </row>
-    <row r="27" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A27" s="6"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="7"/>
-    </row>
-    <row r="28" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="7"/>
-    </row>
-    <row r="29" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="10"/>
-      <c r="C29" s="7"/>
-    </row>
-    <row r="30" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A30" s="6"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="7"/>
-    </row>
-    <row r="31" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A31" s="11"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="7"/>
-    </row>
-    <row r="32" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A32" s="2"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="7"/>
-    </row>
-    <row r="33" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="10"/>
-      <c r="C33" s="7"/>
-    </row>
-    <row r="34" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="2"/>
-      <c r="B34" s="10"/>
-      <c r="C34" s="7"/>
-    </row>
-    <row r="35" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A35" s="11"/>
-      <c r="B35" s="10"/>
-      <c r="C35" s="7"/>
-    </row>
-    <row r="36" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A36" s="6"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="7"/>
-    </row>
-    <row r="37" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A37" s="6"/>
-      <c r="B37" s="10"/>
-      <c r="C37" s="7"/>
-    </row>
-    <row r="38" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A38" s="6"/>
-      <c r="B38" s="10"/>
-      <c r="C38" s="7"/>
-    </row>
-    <row r="39" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="7"/>
-    </row>
-    <row r="40" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A40" s="2"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="7"/>
-    </row>
-    <row r="41" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A41" s="6"/>
-      <c r="B41" s="10"/>
-      <c r="C41" s="7"/>
-    </row>
-    <row r="42" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A42" s="2"/>
-      <c r="B42" s="10"/>
-      <c r="C42" s="7"/>
-    </row>
-    <row r="43" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A43" s="6"/>
-      <c r="B43" s="10"/>
-      <c r="C43" s="7"/>
-    </row>
-    <row r="44" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A44" s="11"/>
-      <c r="B44" s="10"/>
-      <c r="C44" s="7"/>
-    </row>
-    <row r="45" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A45" s="6"/>
-      <c r="B45" s="12"/>
-      <c r="C45" s="7"/>
-    </row>
-    <row r="46" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A46" s="6"/>
-      <c r="B46" s="10"/>
-      <c r="C46" s="7"/>
-    </row>
-    <row r="47" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A47" s="6"/>
-      <c r="B47" s="10"/>
-      <c r="C47" s="7"/>
-    </row>
-    <row r="48" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A48" s="6"/>
-      <c r="B48" s="10"/>
-      <c r="C48" s="7"/>
-    </row>
-    <row r="49" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A49" s="6"/>
-      <c r="B49" s="10"/>
-      <c r="C49" s="7"/>
-    </row>
-    <row r="50" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A50" s="6"/>
-      <c r="B50" s="10"/>
-      <c r="C50" s="7"/>
-    </row>
-    <row r="51" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="10"/>
-      <c r="C51" s="7"/>
-    </row>
-    <row r="52" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="10"/>
-      <c r="C52" s="7"/>
-    </row>
-    <row r="53" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="10"/>
-      <c r="C53" s="7"/>
-    </row>
-    <row r="54" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A54" s="6"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="7"/>
-    </row>
-    <row r="55" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A55" s="6"/>
-      <c r="B55" s="10"/>
-      <c r="C55" s="7"/>
-    </row>
-    <row r="56" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A56" s="2"/>
-      <c r="B56" s="10"/>
-      <c r="C56" s="7"/>
-    </row>
-    <row r="57" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A57" s="6"/>
-      <c r="B57" s="12"/>
-      <c r="C57" s="7"/>
-    </row>
-    <row r="58" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A58" s="2"/>
-      <c r="B58" s="10"/>
-      <c r="C58" s="7"/>
-    </row>
-    <row r="59" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A59" s="6"/>
-      <c r="B59" s="10"/>
-      <c r="C59" s="7"/>
-    </row>
-    <row r="60" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A60" s="6"/>
-      <c r="B60" s="10"/>
-      <c r="C60" s="7"/>
-    </row>
-    <row r="61" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A61" s="6"/>
-      <c r="B61" s="10"/>
-      <c r="C61" s="7"/>
-    </row>
-    <row r="62" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A62" s="2"/>
-      <c r="B62" s="10"/>
-      <c r="C62" s="7"/>
-    </row>
-    <row r="63" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A63" s="6"/>
-      <c r="B63" s="10"/>
-      <c r="C63" s="7"/>
-    </row>
-    <row r="64" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A64" s="11"/>
-      <c r="B64" s="10"/>
-      <c r="C64" s="7"/>
-    </row>
-    <row r="65" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A65" s="2"/>
-      <c r="B65" s="10"/>
-      <c r="C65" s="7"/>
-    </row>
-    <row r="66" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A66" s="2"/>
-      <c r="B66" s="10"/>
-      <c r="C66" s="7"/>
-    </row>
-    <row r="67" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A67" s="6"/>
-      <c r="B67" s="10"/>
-      <c r="C67" s="7"/>
-    </row>
-    <row r="68" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A68" s="6"/>
-      <c r="B68" s="10"/>
-      <c r="C68" s="7"/>
-    </row>
-    <row r="69" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A69" s="6"/>
-      <c r="B69" s="10"/>
-      <c r="C69" s="7"/>
-    </row>
-    <row r="70" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A70" s="6"/>
-      <c r="B70" s="10"/>
-      <c r="C70" s="7"/>
-    </row>
-    <row r="71" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A71" s="6"/>
-      <c r="B71" s="10"/>
-      <c r="C71" s="7"/>
-    </row>
-    <row r="72" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A72" s="6"/>
-      <c r="B72" s="12"/>
-      <c r="C72" s="7"/>
-    </row>
-    <row r="73" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A73" s="6"/>
-      <c r="B73" s="10"/>
-      <c r="C73" s="7"/>
-    </row>
-    <row r="74" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A74" s="2"/>
-      <c r="B74" s="10"/>
-      <c r="C74" s="7"/>
-    </row>
-    <row r="75" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="10"/>
-      <c r="C75" s="7"/>
-    </row>
-    <row r="76" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A76" s="2"/>
-      <c r="B76" s="10"/>
-      <c r="C76" s="7"/>
-    </row>
-    <row r="77" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A77" s="11"/>
-      <c r="B77" s="10"/>
-      <c r="C77" s="7"/>
-    </row>
-    <row r="78" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A78" s="2"/>
-      <c r="B78" s="10"/>
-      <c r="C78" s="7"/>
-    </row>
-    <row r="79" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A79" s="6"/>
-      <c r="B79" s="10"/>
-      <c r="C79" s="7"/>
-    </row>
-    <row r="80" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A80" s="6"/>
-      <c r="B80" s="10"/>
-      <c r="C80" s="7"/>
-    </row>
-    <row r="81" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A81" s="11"/>
-      <c r="B81" s="10"/>
-      <c r="C81" s="7"/>
-    </row>
-    <row r="82" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A82" s="2"/>
-      <c r="B82" s="10"/>
-      <c r="C82" s="7"/>
-    </row>
-    <row r="83" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="10"/>
-      <c r="C83" s="7"/>
-    </row>
-    <row r="84" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A84" s="6"/>
-      <c r="B84" s="10"/>
-      <c r="C84" s="7"/>
-    </row>
-    <row r="85" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A85" s="11"/>
-      <c r="B85" s="10"/>
-      <c r="C85" s="7"/>
-    </row>
-    <row r="86" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A86" s="6"/>
-      <c r="B86" s="10"/>
-      <c r="C86" s="7"/>
-    </row>
-    <row r="87" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="10"/>
-      <c r="C87" s="7"/>
-    </row>
-    <row r="88" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A88" s="6"/>
-      <c r="B88" s="10"/>
-      <c r="C88" s="7"/>
-    </row>
-    <row r="89" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A89" s="6"/>
-      <c r="B89" s="10"/>
-      <c r="C89" s="7"/>
-    </row>
-    <row r="90" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A90" s="6"/>
-      <c r="B90" s="10"/>
-      <c r="C90" s="7"/>
-    </row>
-    <row r="91" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A91" s="6"/>
-      <c r="B91" s="10"/>
-      <c r="C91" s="7"/>
-    </row>
-    <row r="92" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A92" s="6"/>
-      <c r="B92" s="10"/>
-      <c r="C92" s="7"/>
-    </row>
-    <row r="93" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A93" s="6"/>
-      <c r="B93" s="10"/>
-      <c r="C93" s="7"/>
-    </row>
-    <row r="94" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A94" s="6"/>
-      <c r="B94" s="10"/>
-      <c r="C94" s="13"/>
-    </row>
-    <row r="95" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A95" s="11"/>
-      <c r="B95" s="10"/>
-      <c r="C95" s="7"/>
-    </row>
-    <row r="96" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A96" s="2"/>
-      <c r="B96" s="10"/>
-      <c r="C96" s="7"/>
-    </row>
-    <row r="97" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A97" s="6"/>
-      <c r="B97" s="10"/>
-      <c r="C97" s="7"/>
-    </row>
-    <row r="98" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A98" s="2"/>
-      <c r="B98" s="10"/>
-      <c r="C98" s="7"/>
-    </row>
-    <row r="99" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A99" s="6"/>
-      <c r="B99" s="10"/>
-      <c r="C99" s="7"/>
-    </row>
-    <row r="100" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A100" s="2"/>
-      <c r="B100" s="10"/>
-      <c r="C100" s="7"/>
-    </row>
-    <row r="101" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A101" s="6"/>
-      <c r="B101" s="10"/>
-      <c r="C101" s="7"/>
-    </row>
-    <row r="103" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A103" s="6"/>
-      <c r="B103" s="10"/>
-      <c r="C103" s="7"/>
-    </row>
-    <row r="104" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A104" s="6"/>
-      <c r="B104" s="10"/>
-      <c r="C104" s="7"/>
-    </row>
-    <row r="105" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A105" s="11"/>
-      <c r="B105" s="10"/>
-      <c r="C105" s="7"/>
-    </row>
-    <row r="106" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A106" s="6"/>
-      <c r="B106" s="10"/>
-      <c r="C106" s="7"/>
-    </row>
-    <row r="107" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B107" s="10"/>
-      <c r="C107" s="7"/>
-    </row>
-    <row r="108" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A108" s="6"/>
-      <c r="B108" s="10"/>
-      <c r="C108" s="7"/>
-    </row>
-    <row r="109" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A109" s="6"/>
-      <c r="B109" s="10"/>
-      <c r="C109" s="7"/>
-    </row>
-    <row r="110" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="B110" s="10"/>
-      <c r="C110" s="14"/>
-    </row>
-    <row r="111" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A111" s="6"/>
-      <c r="B111" s="10"/>
-      <c r="C111" s="7"/>
-    </row>
-    <row r="112" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A112" s="11"/>
-      <c r="B112" s="10"/>
-      <c r="C112" s="7"/>
-    </row>
-    <row r="113" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A113" s="2"/>
-      <c r="B113" s="10"/>
-      <c r="C113" s="7"/>
-    </row>
-    <row r="114" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A114" s="6"/>
-      <c r="B114" s="10"/>
-      <c r="C114" s="7"/>
-    </row>
-    <row r="115" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A115" s="6"/>
-      <c r="B115" s="10"/>
-      <c r="C115" s="7"/>
-    </row>
-    <row r="116" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A116" s="6"/>
-      <c r="B116" s="10"/>
-      <c r="C116" s="7"/>
-    </row>
-    <row r="117" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A117" s="6"/>
-      <c r="B117" s="10"/>
-      <c r="C117" s="7"/>
-    </row>
-    <row r="118" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A118" s="6"/>
-      <c r="B118" s="10"/>
-      <c r="C118" s="7"/>
-    </row>
-    <row r="119" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A119" s="6"/>
-      <c r="B119" s="10"/>
-      <c r="C119" s="7"/>
-    </row>
-    <row r="120" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A120" s="6"/>
-      <c r="B120" s="10"/>
-      <c r="C120" s="7"/>
-    </row>
-    <row r="121" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A121" s="6"/>
-      <c r="B121" s="10"/>
-      <c r="C121" s="7"/>
-    </row>
-    <row r="122" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A122" s="6"/>
-      <c r="B122" s="10"/>
-      <c r="C122" s="7"/>
-    </row>
-    <row r="123" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A123" s="6"/>
-      <c r="B123" s="10"/>
-      <c r="C123" s="7"/>
-    </row>
-    <row r="124" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A124" s="6"/>
-      <c r="B124" s="10"/>
-      <c r="C124" s="7"/>
-    </row>
-    <row r="125" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A125" s="6"/>
-      <c r="B125" s="10"/>
-      <c r="C125" s="7"/>
-    </row>
-    <row r="126" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A126" s="6"/>
-      <c r="B126" s="10"/>
-      <c r="C126" s="7"/>
-    </row>
-    <row r="127" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A127" s="6"/>
-      <c r="B127" s="10"/>
-      <c r="C127" s="7"/>
-    </row>
-    <row r="128" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A128" s="6"/>
-      <c r="B128" s="10"/>
-      <c r="C128" s="7"/>
-    </row>
-    <row r="129" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A129" s="6"/>
-      <c r="B129" s="10"/>
-      <c r="C129" s="7"/>
-    </row>
-    <row r="130" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A130" s="6"/>
-      <c r="B130" s="10"/>
-      <c r="C130" s="7"/>
-    </row>
-    <row r="131" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A131" s="6"/>
-      <c r="B131" s="10"/>
-      <c r="C131" s="7"/>
-    </row>
-    <row r="132" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A132" s="6"/>
-      <c r="B132" s="10"/>
-      <c r="C132" s="15"/>
+    <row r="12" spans="1:14" ht="80.25" customHeight="1">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5"/>
+    </row>
+    <row r="13" spans="1:14" ht="26.25">
+      <c r="B13" s="4"/>
+      <c r="C13" s="5"/>
+    </row>
+    <row r="14" spans="1:14" ht="52.5" customHeight="1">
+      <c r="B14" s="4"/>
+      <c r="C14" s="5"/>
+    </row>
+    <row r="15" spans="1:14" ht="78.75" customHeight="1">
+      <c r="B15" s="4"/>
+      <c r="C15" s="5"/>
+    </row>
+    <row r="16" spans="1:14" ht="78.75" customHeight="1">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5"/>
+    </row>
+    <row r="17" spans="2:3" ht="78.75" customHeight="1">
+      <c r="B17" s="4"/>
+      <c r="C17" s="5"/>
+    </row>
+    <row r="18" spans="2:3" ht="26.25">
+      <c r="B18" s="4"/>
+      <c r="C18" s="5"/>
+    </row>
+    <row r="19" spans="2:3" ht="26.25">
+      <c r="B19" s="8"/>
+      <c r="C19" s="5"/>
+    </row>
+    <row r="20" spans="2:3" ht="26.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="5"/>
+    </row>
+    <row r="21" spans="2:3" ht="26.25">
+      <c r="B21" s="8"/>
+      <c r="C21" s="5"/>
+    </row>
+    <row r="22" spans="2:3" ht="26.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="5"/>
+    </row>
+    <row r="23" spans="2:3" ht="26.25">
+      <c r="B23" s="8"/>
+      <c r="C23" s="5"/>
+    </row>
+    <row r="24" spans="2:3" ht="26.25">
+      <c r="B24" s="8"/>
+      <c r="C24" s="5"/>
+    </row>
+    <row r="25" spans="2:3" ht="26.25">
+      <c r="B25" s="8"/>
+      <c r="C25" s="5"/>
+    </row>
+    <row r="26" spans="2:3" ht="26.25">
+      <c r="B26" s="8"/>
+      <c r="C26" s="5"/>
+    </row>
+    <row r="27" spans="2:3" ht="26.25">
+      <c r="B27" s="8"/>
+      <c r="C27" s="5"/>
+    </row>
+    <row r="28" spans="2:3" ht="26.25">
+      <c r="B28" s="8"/>
+      <c r="C28" s="5"/>
+    </row>
+    <row r="29" spans="2:3" ht="26.25">
+      <c r="B29" s="8"/>
+      <c r="C29" s="5"/>
+    </row>
+    <row r="30" spans="2:3" ht="26.25">
+      <c r="B30" s="8"/>
+      <c r="C30" s="5"/>
+    </row>
+    <row r="31" spans="2:3" ht="26.25">
+      <c r="B31" s="8"/>
+      <c r="C31" s="5"/>
+    </row>
+    <row r="32" spans="2:3" ht="26.25">
+      <c r="B32" s="8"/>
+      <c r="C32" s="5"/>
+    </row>
+    <row r="33" spans="2:3" ht="26.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="5"/>
+    </row>
+    <row r="34" spans="2:3" ht="26.25">
+      <c r="B34" s="8"/>
+      <c r="C34" s="5"/>
+    </row>
+    <row r="35" spans="2:3" ht="26.25">
+      <c r="B35" s="8"/>
+      <c r="C35" s="5"/>
+    </row>
+    <row r="36" spans="2:3" ht="26.25">
+      <c r="B36" s="8"/>
+      <c r="C36" s="5"/>
+    </row>
+    <row r="37" spans="2:3" ht="26.25">
+      <c r="B37" s="8"/>
+      <c r="C37" s="5"/>
+    </row>
+    <row r="38" spans="2:3" ht="26.25">
+      <c r="B38" s="8"/>
+      <c r="C38" s="5"/>
+    </row>
+    <row r="39" spans="2:3" ht="26.25">
+      <c r="B39" s="8"/>
+      <c r="C39" s="5"/>
+    </row>
+    <row r="40" spans="2:3" ht="26.25">
+      <c r="B40" s="8"/>
+      <c r="C40" s="5"/>
+    </row>
+    <row r="41" spans="2:3" ht="26.25">
+      <c r="B41" s="8"/>
+      <c r="C41" s="5"/>
+    </row>
+    <row r="42" spans="2:3" ht="26.25">
+      <c r="B42" s="8"/>
+      <c r="C42" s="5"/>
+    </row>
+    <row r="43" spans="2:3" ht="26.25">
+      <c r="B43" s="8"/>
+      <c r="C43" s="5"/>
+    </row>
+    <row r="44" spans="2:3" ht="26.25">
+      <c r="B44" s="8"/>
+      <c r="C44" s="5"/>
+    </row>
+    <row r="45" spans="2:3" ht="26.25">
+      <c r="B45" s="9"/>
+      <c r="C45" s="5"/>
+    </row>
+    <row r="46" spans="2:3" ht="26.25">
+      <c r="B46" s="8"/>
+      <c r="C46" s="5"/>
+    </row>
+    <row r="47" spans="2:3" ht="26.25">
+      <c r="B47" s="8"/>
+      <c r="C47" s="5"/>
+    </row>
+    <row r="48" spans="2:3" ht="26.25">
+      <c r="B48" s="8"/>
+      <c r="C48" s="5"/>
+    </row>
+    <row r="49" spans="2:3" ht="26.25">
+      <c r="B49" s="8"/>
+      <c r="C49" s="5"/>
+    </row>
+    <row r="50" spans="2:3" ht="26.25">
+      <c r="B50" s="8"/>
+      <c r="C50" s="5"/>
+    </row>
+    <row r="51" spans="2:3" ht="26.25">
+      <c r="B51" s="8"/>
+      <c r="C51" s="5"/>
+    </row>
+    <row r="52" spans="2:3" ht="26.25">
+      <c r="B52" s="8"/>
+      <c r="C52" s="5"/>
+    </row>
+    <row r="53" spans="2:3" ht="26.25">
+      <c r="B53" s="8"/>
+      <c r="C53" s="5"/>
+    </row>
+    <row r="54" spans="2:3" ht="26.25">
+      <c r="B54" s="8"/>
+      <c r="C54" s="5"/>
+    </row>
+    <row r="55" spans="2:3" ht="26.25">
+      <c r="B55" s="8"/>
+      <c r="C55" s="5"/>
+    </row>
+    <row r="56" spans="2:3" ht="26.25">
+      <c r="B56" s="8"/>
+      <c r="C56" s="5"/>
+    </row>
+    <row r="57" spans="2:3" ht="26.25">
+      <c r="B57" s="9"/>
+      <c r="C57" s="5"/>
+    </row>
+    <row r="58" spans="2:3" ht="26.25">
+      <c r="B58" s="8"/>
+      <c r="C58" s="5"/>
+    </row>
+    <row r="59" spans="2:3" ht="26.25">
+      <c r="B59" s="8"/>
+      <c r="C59" s="5"/>
+    </row>
+    <row r="60" spans="2:3" ht="26.25">
+      <c r="B60" s="8"/>
+      <c r="C60" s="5"/>
+    </row>
+    <row r="61" spans="2:3" ht="26.25">
+      <c r="B61" s="8"/>
+      <c r="C61" s="5"/>
+    </row>
+    <row r="62" spans="2:3" ht="26.25">
+      <c r="B62" s="8"/>
+      <c r="C62" s="5"/>
+    </row>
+    <row r="63" spans="2:3" ht="26.25">
+      <c r="B63" s="8"/>
+      <c r="C63" s="5"/>
+    </row>
+    <row r="64" spans="2:3" ht="26.25">
+      <c r="B64" s="8"/>
+      <c r="C64" s="5"/>
+    </row>
+    <row r="65" spans="2:3" ht="26.25">
+      <c r="B65" s="8"/>
+      <c r="C65" s="5"/>
+    </row>
+    <row r="66" spans="2:3" ht="26.25">
+      <c r="B66" s="8"/>
+      <c r="C66" s="5"/>
+    </row>
+    <row r="67" spans="2:3" ht="26.25">
+      <c r="B67" s="8"/>
+      <c r="C67" s="5"/>
+    </row>
+    <row r="68" spans="2:3" ht="26.25">
+      <c r="B68" s="8"/>
+      <c r="C68" s="5"/>
+    </row>
+    <row r="69" spans="2:3" ht="26.25">
+      <c r="B69" s="8"/>
+      <c r="C69" s="5"/>
+    </row>
+    <row r="70" spans="2:3" ht="26.25">
+      <c r="B70" s="8"/>
+      <c r="C70" s="5"/>
+    </row>
+    <row r="71" spans="2:3" ht="26.25">
+      <c r="B71" s="8"/>
+      <c r="C71" s="5"/>
+    </row>
+    <row r="72" spans="2:3" ht="26.25">
+      <c r="B72" s="9"/>
+      <c r="C72" s="5"/>
+    </row>
+    <row r="73" spans="2:3" ht="26.25">
+      <c r="B73" s="8"/>
+      <c r="C73" s="5"/>
+    </row>
+    <row r="74" spans="2:3" ht="26.25">
+      <c r="B74" s="8"/>
+      <c r="C74" s="5"/>
+    </row>
+    <row r="75" spans="2:3" ht="26.25">
+      <c r="B75" s="8"/>
+      <c r="C75" s="5"/>
+    </row>
+    <row r="76" spans="2:3" ht="26.25">
+      <c r="B76" s="8"/>
+      <c r="C76" s="5"/>
+    </row>
+    <row r="77" spans="2:3" ht="26.25">
+      <c r="B77" s="8"/>
+      <c r="C77" s="5"/>
+    </row>
+    <row r="78" spans="2:3" ht="26.25">
+      <c r="B78" s="8"/>
+      <c r="C78" s="5"/>
+    </row>
+    <row r="79" spans="2:3" ht="26.25">
+      <c r="B79" s="8"/>
+      <c r="C79" s="5"/>
+    </row>
+    <row r="80" spans="2:3" ht="26.25">
+      <c r="B80" s="8"/>
+      <c r="C80" s="5"/>
+    </row>
+    <row r="81" spans="2:3" ht="26.25">
+      <c r="B81" s="8"/>
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82" spans="2:3" ht="26.25">
+      <c r="B82" s="8"/>
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83" spans="2:3" ht="26.25">
+      <c r="B83" s="8"/>
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84" spans="2:3" ht="26.25">
+      <c r="B84" s="8"/>
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85" spans="2:3" ht="26.25">
+      <c r="B85" s="8"/>
+      <c r="C85" s="5"/>
+    </row>
+    <row r="86" spans="2:3" ht="26.25">
+      <c r="B86" s="8"/>
+      <c r="C86" s="5"/>
+    </row>
+    <row r="87" spans="2:3" ht="26.25">
+      <c r="B87" s="8"/>
+      <c r="C87" s="5"/>
+    </row>
+    <row r="88" spans="2:3" ht="26.25">
+      <c r="B88" s="8"/>
+      <c r="C88" s="5"/>
+    </row>
+    <row r="89" spans="2:3" ht="26.25">
+      <c r="B89" s="8"/>
+      <c r="C89" s="5"/>
+    </row>
+    <row r="90" spans="2:3" ht="26.25">
+      <c r="B90" s="8"/>
+      <c r="C90" s="5"/>
+    </row>
+    <row r="91" spans="2:3" ht="26.25">
+      <c r="B91" s="8"/>
+      <c r="C91" s="5"/>
+    </row>
+    <row r="92" spans="2:3" ht="26.25">
+      <c r="B92" s="8"/>
+      <c r="C92" s="5"/>
+    </row>
+    <row r="93" spans="2:3" ht="26.25">
+      <c r="B93" s="8"/>
+      <c r="C93" s="5"/>
+    </row>
+    <row r="94" spans="2:3" ht="26.25">
+      <c r="B94" s="8"/>
+      <c r="C94" s="10"/>
+    </row>
+    <row r="95" spans="2:3" ht="26.25">
+      <c r="B95" s="8"/>
+      <c r="C95" s="5"/>
+    </row>
+    <row r="96" spans="2:3" ht="26.25">
+      <c r="B96" s="8"/>
+      <c r="C96" s="5"/>
+    </row>
+    <row r="97" spans="2:3" ht="26.25">
+      <c r="B97" s="8"/>
+      <c r="C97" s="5"/>
+    </row>
+    <row r="98" spans="2:3" ht="26.25">
+      <c r="B98" s="8"/>
+      <c r="C98" s="5"/>
+    </row>
+    <row r="99" spans="2:3" ht="26.25">
+      <c r="B99" s="8"/>
+      <c r="C99" s="5"/>
+    </row>
+    <row r="100" spans="2:3" ht="26.25">
+      <c r="B100" s="8"/>
+      <c r="C100" s="5"/>
+    </row>
+    <row r="101" spans="2:3" ht="26.25">
+      <c r="B101" s="8"/>
+      <c r="C101" s="5"/>
+    </row>
+    <row r="103" spans="2:3" ht="26.25">
+      <c r="B103" s="8"/>
+      <c r="C103" s="5"/>
+    </row>
+    <row r="104" spans="2:3" ht="26.25">
+      <c r="B104" s="8"/>
+      <c r="C104" s="5"/>
+    </row>
+    <row r="105" spans="2:3" ht="26.25">
+      <c r="B105" s="8"/>
+      <c r="C105" s="5"/>
+    </row>
+    <row r="106" spans="2:3" ht="26.25">
+      <c r="B106" s="8"/>
+      <c r="C106" s="5"/>
+    </row>
+    <row r="107" spans="2:3" ht="26.25">
+      <c r="B107" s="8"/>
+      <c r="C107" s="5"/>
+    </row>
+    <row r="108" spans="2:3" ht="26.25">
+      <c r="B108" s="8"/>
+      <c r="C108" s="5"/>
+    </row>
+    <row r="109" spans="2:3" ht="26.25">
+      <c r="B109" s="8"/>
+      <c r="C109" s="5"/>
+    </row>
+    <row r="110" spans="2:3" ht="26.25">
+      <c r="B110" s="8"/>
+      <c r="C110" s="11"/>
+    </row>
+    <row r="111" spans="2:3" ht="26.25">
+      <c r="B111" s="8"/>
+      <c r="C111" s="5"/>
+    </row>
+    <row r="112" spans="2:3" ht="26.25">
+      <c r="B112" s="8"/>
+      <c r="C112" s="5"/>
+    </row>
+    <row r="113" spans="2:3" ht="26.25">
+      <c r="B113" s="8"/>
+      <c r="C113" s="5"/>
+    </row>
+    <row r="114" spans="2:3" ht="26.25">
+      <c r="B114" s="8"/>
+      <c r="C114" s="5"/>
+    </row>
+    <row r="115" spans="2:3" ht="26.25">
+      <c r="B115" s="8"/>
+      <c r="C115" s="5"/>
+    </row>
+    <row r="116" spans="2:3" ht="26.25">
+      <c r="B116" s="8"/>
+      <c r="C116" s="5"/>
+    </row>
+    <row r="117" spans="2:3" ht="26.25">
+      <c r="B117" s="8"/>
+      <c r="C117" s="5"/>
+    </row>
+    <row r="118" spans="2:3" ht="26.25">
+      <c r="B118" s="8"/>
+      <c r="C118" s="5"/>
+    </row>
+    <row r="119" spans="2:3" ht="26.25">
+      <c r="B119" s="8"/>
+      <c r="C119" s="5"/>
+    </row>
+    <row r="120" spans="2:3" ht="26.25">
+      <c r="B120" s="8"/>
+      <c r="C120" s="5"/>
+    </row>
+    <row r="121" spans="2:3" ht="26.25">
+      <c r="B121" s="8"/>
+      <c r="C121" s="5"/>
+    </row>
+    <row r="122" spans="2:3" ht="26.25">
+      <c r="B122" s="8"/>
+      <c r="C122" s="5"/>
+    </row>
+    <row r="123" spans="2:3" ht="26.25">
+      <c r="B123" s="8"/>
+      <c r="C123" s="5"/>
+    </row>
+    <row r="124" spans="2:3" ht="26.25">
+      <c r="B124" s="8"/>
+      <c r="C124" s="5"/>
+    </row>
+    <row r="125" spans="2:3" ht="26.25">
+      <c r="B125" s="8"/>
+      <c r="C125" s="5"/>
+    </row>
+    <row r="126" spans="2:3" ht="26.25">
+      <c r="B126" s="8"/>
+      <c r="C126" s="5"/>
+    </row>
+    <row r="127" spans="2:3" ht="26.25">
+      <c r="B127" s="8"/>
+      <c r="C127" s="5"/>
+    </row>
+    <row r="128" spans="2:3" ht="26.25">
+      <c r="B128" s="8"/>
+      <c r="C128" s="5"/>
+    </row>
+    <row r="129" spans="2:3" ht="26.25">
+      <c r="B129" s="8"/>
+      <c r="C129" s="5"/>
+    </row>
+    <row r="130" spans="2:3" ht="26.25">
+      <c r="B130" s="8"/>
+      <c r="C130" s="5"/>
+    </row>
+    <row r="131" spans="2:3" ht="26.25">
+      <c r="B131" s="8"/>
+      <c r="C131" s="5"/>
+    </row>
+    <row r="132" spans="2:3" ht="26.25">
+      <c r="B132" s="8"/>
+      <c r="C132" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2002,7 +1848,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://minishop.gmarket.co.kr/pngshop" xr:uid="{4669318B-5391-4B17-B209-2C5423E1C875}"/>
+    <hyperlink ref="A2" r:id="rId1" display="http://minishop.gmarket.co.kr/pngshop"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" r:id="rId2"/>
@@ -2010,140 +1856,140 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C08F526-C9D9-4F30-B44E-B7168B819D0C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="60.625" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="26.25">
+      <c r="A1" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>99900</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="26.25">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>49900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="52.5">
+      <c r="A3" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>49000</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="52.5">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>33060</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="27">
+      <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>57930</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" ht="26.25">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>81900</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" ht="52.5">
+      <c r="A7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>77400</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:3" ht="78.75">
+      <c r="A8" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>39900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="52.5">
+      <c r="A9" t="s">
         <v>38</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>2500</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:3" ht="26.25">
+      <c r="A10" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>69900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="https://www.gmarket.co.kr/n/smilefresh" xr:uid="{D685351D-2BD4-4C1C-B3DE-D1BCE4268E07}"/>
-    <hyperlink ref="A2" r:id="rId2" display="https://www.gmarket.co.kr/n/smilefresh" xr:uid="{201D5BBB-2A13-4BD9-BD27-F33DED59FB7F}"/>
-    <hyperlink ref="A3" r:id="rId3" display="https://www.gmarket.co.kr/n/smilefresh" xr:uid="{D675D639-BADF-421D-85B9-7B398D4924EB}"/>
-    <hyperlink ref="A5" r:id="rId4" display="http://minishop.gmarket.co.kr/emartmalldelivery" xr:uid="{5C134114-AE7F-4374-99DB-EF6352039A5B}"/>
-    <hyperlink ref="A8" r:id="rId5" display="http://minishop.gmarket.co.kr/irudaplat1" xr:uid="{25B3F7A8-F5A0-48F7-8497-F098B42FB4FC}"/>
-    <hyperlink ref="A9" r:id="rId6" display="http://minishop.gmarket.co.kr/kykiditem" xr:uid="{80101C7D-8F25-4296-9B78-8BA46E8A4D37}"/>
-    <hyperlink ref="A10" r:id="rId7" display="https://www.gmarket.co.kr/n/smilefresh" xr:uid="{9B0DC768-5782-40C1-9268-5D6067558B0D}"/>
+    <hyperlink ref="A1" r:id="rId1" display="https://www.gmarket.co.kr/n/smilefresh"/>
+    <hyperlink ref="A2" r:id="rId2" display="https://www.gmarket.co.kr/n/smilefresh"/>
+    <hyperlink ref="A3" r:id="rId3" display="https://www.gmarket.co.kr/n/smilefresh"/>
+    <hyperlink ref="A5" r:id="rId4" display="http://minishop.gmarket.co.kr/emartmalldelivery"/>
+    <hyperlink ref="A8" r:id="rId5" display="http://minishop.gmarket.co.kr/irudaplat1"/>
+    <hyperlink ref="A9" r:id="rId6" display="http://minishop.gmarket.co.kr/kykiditem"/>
+    <hyperlink ref="A10" r:id="rId7" display="https://www.gmarket.co.kr/n/smilefresh"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
@@ -2151,273 +1997,264 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F12243AC-82A8-4AF6-895E-4E260BD00BA4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A2" sqref="A1:C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="13.125" customWidth="1"/>
     <col min="2" max="2" width="84.125" customWidth="1"/>
     <col min="3" max="3" width="15.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="52.5">
+      <c r="A1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>9900</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="6" t="s">
+    <row r="2" spans="1:3" ht="52.5">
+      <c r="A2" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>13900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:3" ht="26.25">
+      <c r="A3" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>6900</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="26.25">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>12900</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:3" ht="52.5">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>15000</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" ht="52.5">
+      <c r="A6" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>11600</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="27" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" ht="27">
+      <c r="A7" t="s">
         <v>53</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>15900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:3" ht="52.5">
+      <c r="A8" t="s">
         <v>55</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>9900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="54" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
+    <row r="9" spans="1:3" ht="54">
+      <c r="A9" t="s">
         <v>56</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="5">
         <v>13900</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" ht="26.25">
+      <c r="A10" t="s">
         <v>58</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>13900</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://minishop.gmarket.co.kr/reporemkids" xr:uid="{C6ABC050-E0F8-4098-94A0-9C6ADCE157AC}"/>
-    <hyperlink ref="A3" r:id="rId2" display="http://minishop.gmarket.co.kr/innerwear" xr:uid="{F11488C3-6382-4FD3-B2C5-E5171BCDF353}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D251EB-E8C3-451D-8D2A-27DB8946A945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="11.25" customWidth="1"/>
     <col min="2" max="2" width="65.375" customWidth="1"/>
     <col min="3" max="3" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:3" ht="52.5">
+      <c r="A1" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C1" s="7">
+      <c r="C1" s="5">
         <v>12900</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:3" ht="52.5">
+      <c r="A2" t="s">
         <v>62</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="5">
         <v>12900</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+    <row r="3" spans="1:3" ht="52.5">
+      <c r="A3" t="s">
         <v>64</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>26780</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:3" ht="52.5">
+      <c r="A4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>19900</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:3" ht="52.5">
+      <c r="A5" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>12900</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:3" ht="52.5">
+      <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="5">
         <v>29260</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:3" ht="52.5">
+      <c r="A7" t="s">
         <v>72</v>
       </c>
-      <c r="B7" s="16" t="s">
+      <c r="B7" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>13900</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="78.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="11" t="s">
+    <row r="8" spans="1:3" ht="78.75">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="5">
         <v>22900</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="52.5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:3" ht="52.5">
+      <c r="A9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="10" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="26.25" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
+    <row r="10" spans="1:3" ht="26.25">
+      <c r="A10" t="s">
         <v>78</v>
       </c>
-      <c r="B10" s="16" t="s">
+      <c r="B10" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="5">
         <v>21000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="http://minishop.gmarket.co.kr/BYSIYU" xr:uid="{4DD58E09-1C89-40FA-AAFC-D7ACCDA5DE5B}"/>
-    <hyperlink ref="A5" r:id="rId2" display="http://minishop.gmarket.co.kr/slamode" xr:uid="{B64BB45E-C104-477F-ABF8-404C10D3AC53}"/>
-    <hyperlink ref="A9" r:id="rId3" display="http://minishop.gmarket.co.kr/mlbshoes" xr:uid="{3C3207E4-B688-4AD1-A9A4-0628AD99316A}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>